--- a/Mads/Resources/SmallTopicsDf.xlsx
+++ b/Mads/Resources/SmallTopicsDf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Count</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -475,7 +480,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -484,6 +489,11 @@
       </c>
       <c r="F2" t="n">
         <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Topic (0)</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -501,7 +511,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -510,6 +520,11 @@
       </c>
       <c r="F3" t="n">
         <v>10</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Topic (0)</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -527,7 +542,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -537,23 +552,28 @@
       <c r="F4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Biology (1)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Informatics</t>
+          <t>Biology</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>topic_0605</t>
+          <t>topic_3070</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -561,103 +581,123 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Biology (1)</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Literature and language</t>
+          <t>Omics</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>topic_3068</t>
+          <t>topic_3391</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Strict</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Omics (1)</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Omics</t>
+          <t>Laboratory techniques</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>topic_3391</t>
+          <t>topic_3361</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Strict</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Laboratory techniques (1)</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Computational biology</t>
+          <t>Informatics</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>topic_3307</t>
+          <t>topic_0605</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Strict</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Informatics (1)</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Informatics</t>
+          <t>Chemistry</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>topic_0605</t>
+          <t>topic_3314</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -667,49 +707,59 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Chemistry (1)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Laboratory techniques</t>
+          <t>Informatics</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>topic_3361</t>
+          <t>topic_0605</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Strict</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Informatics (1)</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chemistry</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>topic_3314</t>
+          <t>topic_3315</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -717,7 +767,12 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Mathematics (1)</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -735,7 +790,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -744,24 +799,29 @@
       </c>
       <c r="F12" t="n">
         <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Chemistry (1)</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Biology</t>
+          <t>Computational biology</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>topic_3070</t>
+          <t>topic_3307</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -769,12 +829,17 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Computational biology (1)</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -787,41 +852,51 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Strict</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>1</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Mathematics (1)</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Medicine</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>topic_3315</t>
+          <t>topic_3303</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Strict</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Medicine (1)</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -839,7 +914,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -848,6 +923,11 @@
       </c>
       <c r="F16" t="n">
         <v>2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Medicine (1)</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -865,7 +945,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -874,6 +954,11 @@
       </c>
       <c r="F17" t="n">
         <v>1</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Literature and language (1)</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -891,7 +976,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -901,23 +986,28 @@
       <c r="F18" t="n">
         <v>0</v>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Omics (1)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Medicine</t>
+          <t>Literature and language</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>topic_3303</t>
+          <t>topic_3068</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -925,7 +1015,12 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Literature and language (1)</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -943,7 +1038,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -952,6 +1047,11 @@
       </c>
       <c r="F20" t="n">
         <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Computational biology (1)</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -969,7 +1069,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -978,24 +1078,29 @@
       </c>
       <c r="F21" t="n">
         <v>2</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Laboratory techniques (1)</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sequence analysis</t>
+          <t>Proteomics</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>topic_0080</t>
+          <t>topic_0121</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1003,25 +1108,30 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Proteomics (2)</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Proteomics</t>
+          <t>Sequence sites, features and motifs</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>topic_0121</t>
+          <t>topic_0160</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1030,24 +1140,29 @@
       </c>
       <c r="F23" t="n">
         <v>1</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Sequence sites, features and motifs (2)</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sequence sites, features and motifs</t>
+          <t>Proteins</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>topic_0160</t>
+          <t>topic_0078</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1055,25 +1170,30 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Proteins (2)</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Proteins</t>
+          <t>Structure analysis</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>topic_0078</t>
+          <t>topic_0081</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1082,24 +1202,29 @@
       </c>
       <c r="F25" t="n">
         <v>2</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Structure analysis (2)</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Structure analysis</t>
+          <t>Biochemistry</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>topic_0081</t>
+          <t>topic_3292</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1107,7 +1232,12 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Biochemistry (2)</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1125,7 +1255,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1134,24 +1264,29 @@
       </c>
       <c r="F27" t="n">
         <v>1</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Sequence analysis (2)</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Molecular interactions, pathways and networks</t>
+          <t>Evolutionary biology</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>topic_0602</t>
+          <t>topic_3299</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1159,51 +1294,61 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Evolutionary biology (2)</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cheminformatics</t>
+          <t>Systems biology</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>topic_2258</t>
+          <t>topic_2259</t>
         </is>
       </c>
       <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
         <v>3</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Systems biology (2)</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Systems biology</t>
+          <t>Metabolomics</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>topic_2259</t>
+          <t>topic_3172</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1211,51 +1356,61 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Metabolomics (2)</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Metabolomics</t>
+          <t>Molecular interactions, pathways and networks</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>topic_3172</t>
+          <t>topic_0602</t>
         </is>
       </c>
       <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
         <v>3</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Molecular interactions, pathways and networks (2)</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Evolutionary biology</t>
+          <t>Phylogeny</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>topic_3299</t>
+          <t>topic_0084</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1264,6 +1419,11 @@
       </c>
       <c r="F32" t="n">
         <v>1</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Phylogeny (2)</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1281,7 +1441,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1291,23 +1451,28 @@
       <c r="F33" t="n">
         <v>4</v>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Genetics (2)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ontology and terminology</t>
+          <t>Molecular genetics</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>topic_0089</t>
+          <t>topic_3321</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1315,25 +1480,30 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Molecular genetics (2)</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Genomics</t>
+          <t>Ontology and terminology</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>topic_0622</t>
+          <t>topic_0089</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1341,25 +1511,30 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Ontology and terminology (2)</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Function analysis</t>
+          <t>Genomics</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>topic_1775</t>
+          <t>topic_0622</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1367,25 +1542,30 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Genomics (2)</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sequencing</t>
+          <t>Function analysis</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>topic_3168</t>
+          <t>topic_1775</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1393,25 +1573,30 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Function analysis (2)</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Physiology</t>
+          <t>Sequencing</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>topic_3300</t>
+          <t>topic_3168</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1419,25 +1604,30 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Sequencing (2)</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nucleic acids</t>
+          <t>Physiology</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>topic_0077</t>
+          <t>topic_3300</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1446,24 +1636,29 @@
       </c>
       <c r="F39" t="n">
         <v>1</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Physiology (2)</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Biochemistry</t>
+          <t>Nucleic acids</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>topic_3292</t>
+          <t>topic_0077</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1472,76 +1667,91 @@
       </c>
       <c r="F40" t="n">
         <v>1</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Nucleic acids (2)</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nucleic acids</t>
+          <t>Cheminformatics</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>topic_0077</t>
+          <t>topic_2258</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Strict</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Cheminformatics (2)</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Oncology</t>
+          <t>Sequence analysis</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>topic_2640</t>
+          <t>topic_0080</t>
         </is>
       </c>
       <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
         <v>3</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Strict</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Sequence analysis (2)</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Molecular interactions, pathways and networks</t>
+          <t>Oncology</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>topic_0602</t>
+          <t>topic_2640</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1549,25 +1759,30 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Oncology (2)</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Proteomics</t>
+          <t>Evolutionary biology</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>topic_0121</t>
+          <t>topic_3299</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1575,25 +1790,30 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Evolutionary biology (2)</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sequence sites, features and motifs</t>
+          <t>Proteomics</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>topic_0160</t>
+          <t>topic_0121</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1602,24 +1822,29 @@
       </c>
       <c r="F45" t="n">
         <v>1</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Proteomics (2)</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Proteins</t>
+          <t>Sequence sites, features and motifs</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>topic_0078</t>
+          <t>topic_0160</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1628,24 +1853,29 @@
       </c>
       <c r="F46" t="n">
         <v>1</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Sequence sites, features and motifs (2)</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Structure analysis</t>
+          <t>Proteins</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>topic_0081</t>
+          <t>topic_0078</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1653,25 +1883,30 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Proteins (2)</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Biochemistry</t>
+          <t>Structure analysis</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>topic_3292</t>
+          <t>topic_0081</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1679,25 +1914,30 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Structure analysis (2)</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cheminformatics</t>
+          <t>Biochemistry</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>topic_2258</t>
+          <t>topic_3292</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1706,24 +1946,29 @@
       </c>
       <c r="F49" t="n">
         <v>1</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Biochemistry (2)</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Systems biology</t>
+          <t>Cheminformatics</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>topic_2259</t>
+          <t>topic_2258</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1731,51 +1976,61 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Cheminformatics (2)</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Metabolomics</t>
+          <t>Systems biology</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>topic_3172</t>
+          <t>topic_2259</t>
         </is>
       </c>
       <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Strict</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Strict</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Systems biology (2)</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Evolutionary biology</t>
+          <t>Metabolomics</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>topic_3299</t>
+          <t>topic_3172</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1783,51 +2038,61 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Metabolomics (2)</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Genetics</t>
+          <t>Molecular interactions, pathways and networks</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>topic_3053</t>
+          <t>topic_0602</t>
         </is>
       </c>
       <c r="D53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Strict</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
         <v>3</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Strict</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Molecular interactions, pathways and networks (2)</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ontology and terminology</t>
+          <t>Nucleic acids</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>topic_0089</t>
+          <t>topic_0077</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1835,51 +2100,61 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Nucleic acids (2)</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Oncology</t>
+          <t>Phylogeny</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>topic_2640</t>
+          <t>topic_0084</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Strict</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Phylogeny (2)</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Function analysis</t>
+          <t>Genetics</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>topic_1775</t>
+          <t>topic_3053</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1889,23 +2164,28 @@
       <c r="F56" t="n">
         <v>0</v>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Genetics (2)</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Genomics</t>
+          <t>Molecular genetics</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>topic_0622</t>
+          <t>topic_3321</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1915,23 +2195,28 @@
       <c r="F57" t="n">
         <v>0</v>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Molecular genetics (2)</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sequencing</t>
+          <t>Ontology and terminology</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>topic_3168</t>
+          <t>topic_0089</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1939,129 +2224,154 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Ontology and terminology (2)</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Physiology</t>
+          <t>Oncology</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>topic_3300</t>
+          <t>topic_2640</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Strict</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F59" t="n">
         <v>1</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Oncology (2)</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Mapping</t>
+          <t>Genomics</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>topic_0102</t>
+          <t>topic_0622</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Strict</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Genomics (2)</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Functional genomics</t>
+          <t>Physiology</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>topic_0085</t>
+          <t>topic_3300</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Strict</t>
         </is>
       </c>
       <c r="F61" t="n">
         <v>1</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Physiology (2)</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Comparative genomics</t>
+          <t>Sequencing</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>topic_0797</t>
+          <t>topic_3168</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Strict</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Sequencing (2)</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Functional genomics</t>
+          <t>Function analysis</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>topic_0085</t>
+          <t>topic_1775</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2069,259 +2379,309 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Function analysis (2)</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Molecular genetics</t>
+          <t>Transcriptomics</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>topic_3321</t>
+          <t>topic_3308</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Strict</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Transcriptomics (3)</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Comparative genomics</t>
+          <t>RNA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>topic_0797</t>
+          <t>topic_0099</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Strict</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F65" t="n">
         <v>1</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>RNA (3)</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Protein structure analysis</t>
+          <t>Gene structure</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>topic_2814</t>
+          <t>topic_0114</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Strict</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Gene structure (3)</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Phylogeny</t>
+          <t>Gene structure</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>topic_0084</t>
+          <t>topic_0114</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Strict</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Gene structure (3)</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>RNA</t>
+          <t>Protein structure analysis</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>topic_0099</t>
+          <t>topic_2814</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Strict</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Protein structure analysis (3)</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Phylogeny</t>
+          <t>RNA-Seq</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>topic_0084</t>
+          <t>topic_3170</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Strict</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>RNA-Seq (3)</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RNA</t>
+          <t>Functional genomics</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>topic_0099</t>
+          <t>topic_0085</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Strict</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Functional genomics (3)</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Molecular genetics</t>
+          <t>Comparative genomics</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>topic_3321</t>
+          <t>topic_0797</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Strict</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Comparative genomics (3)</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Protein structure analysis</t>
+          <t>Mapping</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>topic_2814</t>
+          <t>topic_0102</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Strict</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Mapping (3)</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Mapping</t>
+          <t>RNA-Seq</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>topic_0102</t>
+          <t>topic_3170</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2329,155 +2689,185 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>RNA-Seq (3)</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RNA-Seq</t>
+          <t>Mapping</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>topic_3170</t>
+          <t>topic_0102</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Strict</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Mapping (3)</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RNA-Seq</t>
+          <t>Functional genomics</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>topic_3170</t>
+          <t>topic_0085</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Strict</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Functional genomics (3)</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Protein structural motifs and surfaces</t>
+          <t>Gene expression</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>topic_0166</t>
+          <t>topic_0203</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Strict</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Gene expression (3)</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Gene structure</t>
+          <t>Phylogenetics</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>topic_0114</t>
+          <t>topic_3293</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Strict</t>
         </is>
       </c>
       <c r="F77" t="n">
         <v>1</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Phylogenetics (3)</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Protein folds and structural domains</t>
+          <t>Protein structure analysis</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>topic_0736</t>
+          <t>topic_2814</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Strict</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F78" t="n">
         <v>2</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Protein structure analysis (3)</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Protein folds and structural domains</t>
+          <t>Phylogenetics</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>topic_0736</t>
+          <t>topic_3293</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2485,51 +2875,61 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Phylogenetics (3)</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Gene expression</t>
+          <t>Comparative genomics</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>topic_0203</t>
+          <t>topic_0797</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Strict</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Comparative genomics (3)</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Gene structure</t>
+          <t>Gene expression</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>topic_0114</t>
+          <t>topic_0203</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2537,25 +2937,30 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Gene expression (3)</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Phylogenetics</t>
+          <t>Transcriptomics</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>topic_3293</t>
+          <t>topic_3308</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2563,25 +2968,30 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Transcriptomics (3)</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Phylogenetics</t>
+          <t>RNA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>topic_3293</t>
+          <t>topic_0099</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2589,7 +2999,12 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>RNA (3)</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -2607,7 +3022,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2616,24 +3031,29 @@
       </c>
       <c r="F84" t="n">
         <v>1</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Protein structural motifs and surfaces (4)</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Gene expression</t>
+          <t>Protein folds and structural domains</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>topic_0203</t>
+          <t>topic_0736</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2641,25 +3061,30 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Protein folds and structural domains (4)</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transcriptomics</t>
+          <t>Gene transcripts</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>topic_3308</t>
+          <t>topic_3512</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2667,51 +3092,61 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Gene transcripts (4)</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Gene transcripts</t>
+          <t>Protein structural motifs and surfaces</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>topic_3512</t>
+          <t>topic_0166</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Strict</t>
         </is>
       </c>
       <c r="F87" t="n">
         <v>1</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Protein structural motifs and surfaces (4)</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transcriptomics</t>
+          <t>Gene transcripts</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>topic_3308</t>
+          <t>topic_3512</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2719,33 +3154,43 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Gene transcripts (4)</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Gene transcripts</t>
+          <t>Protein folds and structural domains</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>topic_3512</t>
+          <t>topic_0736</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Strict</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Protein folds and structural domains (4)</t>
+        </is>
       </c>
     </row>
   </sheetData>
